--- a/forms/app/quarantine.xlsx
+++ b/forms/app/quarantine.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId5"/>
-    <sheet state="hidden" name="choices-backup" sheetId="4" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="456">
   <si>
     <t>list_name</t>
   </si>
@@ -1280,66 +1296,175 @@
   </si>
   <si>
     <t>Office Address</t>
+  </si>
+  <si>
+    <t>Date d'arrivée au Népal</t>
+  </si>
+  <si>
+    <t>Nom des compagnies aériennes</t>
+  </si>
+  <si>
+    <t>Numéro de vol.</t>
+  </si>
+  <si>
+    <t>N ° de siège</t>
+  </si>
+  <si>
+    <t>Pays / lieux visités au cours des 14 derniers jours</t>
+  </si>
+  <si>
+    <t>PAS DE LABEL</t>
+  </si>
+  <si>
+    <t>3. Hébergement</t>
+  </si>
+  <si>
+    <t>S'il vous plaît indiquer votre logement.</t>
+  </si>
+  <si>
+    <t>Précisez le nom Hôtel</t>
+  </si>
+  <si>
+    <t>Spécifiez un autre lieu de séjour</t>
+  </si>
+  <si>
+    <t>Municipalité</t>
+  </si>
+  <si>
+    <t>Ward pas.</t>
+  </si>
+  <si>
+    <t>téléphone fixe</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>contacts locaux</t>
+  </si>
+  <si>
+    <t>Nom du superviseur</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Bureau</t>
+  </si>
+  <si>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>Adresse de bureau</t>
+  </si>
+  <si>
+    <t>Rempli à</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Masculin</t>
+  </si>
+  <si>
+    <t>Hôtel</t>
+  </si>
+  <si>
+    <t>2. Historique du voyage</t>
+  </si>
+  <si>
+    <t>Numéro du domicile</t>
+  </si>
+  <si>
+    <t>Numéro mobile</t>
+  </si>
+  <si>
+    <t>Chambre partagée avec</t>
+  </si>
+  <si>
+    <t>Relation avec les contacts locaux</t>
+  </si>
+  <si>
+    <t>Détails sur l'emploi</t>
+  </si>
+  <si>
+    <t>Féminin</t>
+  </si>
+  <si>
+    <t>Domicile</t>
+  </si>
+  <si>
+    <t>Autres lieux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd-MM-yyyy HH-mm-ss"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF76A5AF"/>
       <name val="Arial"/>
     </font>
@@ -1349,7 +1474,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1431,227 +1556,446 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="64">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="10" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Bureau">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Bureau">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Bureau">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.29"/>
-    <col customWidth="1" min="2" max="2" width="33.29"/>
-    <col customWidth="1" min="3" max="3" width="43.29"/>
-    <col customWidth="1" min="4" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="53.86"/>
-    <col customWidth="1" min="7" max="8" width="17.43"/>
-    <col customWidth="1" min="9" max="9" width="37.71"/>
-    <col customWidth="1" min="10" max="10" width="32.71"/>
-    <col customWidth="1" min="11" max="11" width="73.86"/>
-    <col customWidth="1" min="12" max="12" width="14.43"/>
-    <col customWidth="1" min="13" max="13" width="30.0"/>
-    <col customWidth="1" min="14" max="15" width="14.43"/>
-    <col customWidth="1" min="16" max="27" width="29.86"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" customWidth="1"/>
+    <col min="8" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="15" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="28" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1661,55 +2005,57 @@
       <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="16"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
       <c r="W1" s="16"/>
@@ -1717,8 +2063,9 @@
       <c r="Y1" s="16"/>
       <c r="Z1" s="16"/>
       <c r="AA1" s="16"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+      <c r="AB1" s="16"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>36</v>
       </c>
@@ -1728,15 +2075,15 @@
       <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -1747,7 +2094,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
-      <c r="S2" s="25"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
       <c r="V2" s="25"/>
@@ -1756,8 +2103,9 @@
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+      <c r="AB2" s="25"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
@@ -1767,7 +2115,7 @@
       <c r="C3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -1777,14 +2125,14 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
-      <c r="S3" s="25"/>
+      <c r="S3" s="23"/>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
@@ -1793,8 +2141,9 @@
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="AB3" s="25"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
@@ -1804,7 +2153,7 @@
       <c r="C4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -1819,7 +2168,7 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
-      <c r="S4" s="25"/>
+      <c r="S4" s="23"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
@@ -1828,8 +2177,9 @@
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>36</v>
       </c>
@@ -1839,7 +2189,7 @@
       <c r="C5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -1854,7 +2204,7 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
-      <c r="S5" s="25"/>
+      <c r="S5" s="23"/>
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
@@ -1863,8 +2213,9 @@
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
       <c r="AA5" s="25"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="AB5" s="25"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>59</v>
       </c>
@@ -1874,13 +2225,13 @@
       <c r="C6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -1891,7 +2242,7 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="25"/>
+      <c r="S6" s="23"/>
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
       <c r="V6" s="25"/>
@@ -1900,8 +2251,9 @@
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
       <c r="AA6" s="25"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="AB6" s="25"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
@@ -1911,7 +2263,7 @@
       <c r="C7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -1926,7 +2278,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
-      <c r="S7" s="25"/>
+      <c r="S7" s="23"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
@@ -1935,8 +2287,9 @@
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
       <c r="AA7" s="25"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="AB7" s="25"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>52</v>
       </c>
@@ -1946,7 +2299,7 @@
       <c r="C8" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -1961,7 +2314,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
-      <c r="S8" s="25"/>
+      <c r="S8" s="23"/>
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
@@ -1970,8 +2323,9 @@
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="25"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="AB8" s="25"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -2005,8 +2359,9 @@
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
       <c r="AA9" s="30"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="AB9" s="30"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
         <v>36</v>
       </c>
@@ -2040,8 +2395,9 @@
       <c r="Y10" s="30"/>
       <c r="Z10" s="30"/>
       <c r="AA10" s="30"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="AB10" s="30"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
         <v>52</v>
       </c>
@@ -2075,8 +2431,9 @@
       <c r="Y11" s="30"/>
       <c r="Z11" s="30"/>
       <c r="AA11" s="30"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="AB11" s="30"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="33" t="s">
         <v>52</v>
       </c>
@@ -2110,8 +2467,9 @@
       <c r="Y12" s="30"/>
       <c r="Z12" s="30"/>
       <c r="AA12" s="30"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="AB12" s="30"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28" t="s">
         <v>52</v>
       </c>
@@ -2145,8 +2503,9 @@
       <c r="Y13" s="30"/>
       <c r="Z13" s="30"/>
       <c r="AA13" s="30"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="AB13" s="30"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28" t="s">
         <v>52</v>
       </c>
@@ -2180,8 +2539,9 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="30"/>
       <c r="AA14" s="30"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="33" t="s">
         <v>159</v>
       </c>
@@ -2211,8 +2571,9 @@
       <c r="Y15" s="30"/>
       <c r="Z15" s="30"/>
       <c r="AA15" s="30"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="AB15" s="30"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>159</v>
       </c>
@@ -2220,7 +2581,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -2235,7 +2596,7 @@
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
-      <c r="S16" s="25"/>
+      <c r="S16" s="23"/>
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
@@ -2244,8 +2605,9 @@
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+      <c r="AB16" s="25"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>159</v>
       </c>
@@ -2253,7 +2615,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -2266,11 +2628,11 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
-      <c r="Q17" s="38" t="s">
+      <c r="Q17" s="23"/>
+      <c r="R17" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="R17" s="23"/>
-      <c r="S17" s="25"/>
+      <c r="S17" s="23"/>
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
@@ -2279,12 +2641,13 @@
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+      <c r="AB17" s="25"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -2297,9 +2660,9 @@
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="41"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="39"/>
       <c r="T18" s="41"/>
       <c r="U18" s="41"/>
       <c r="V18" s="41"/>
@@ -2308,8 +2671,9 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
       <c r="AA18" s="41"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="AB18" s="41"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
         <v>245</v>
       </c>
@@ -2319,24 +2683,24 @@
       <c r="C19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="43"/>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="43"/>
+      <c r="L19" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="L19" s="43"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
       <c r="O19" s="43"/>
       <c r="P19" s="43"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="45"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="43"/>
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
       <c r="V19" s="45"/>
@@ -2345,8 +2709,9 @@
       <c r="Y19" s="45"/>
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+      <c r="AB19" s="45"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42" t="s">
         <v>245</v>
       </c>
@@ -2356,24 +2721,24 @@
       <c r="C20" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="43"/>
+      <c r="L20" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="L20" s="43"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="45"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="43"/>
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
       <c r="V20" s="45"/>
@@ -2382,8 +2747,9 @@
       <c r="Y20" s="45"/>
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="AB20" s="45"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
@@ -2393,24 +2759,24 @@
       <c r="C21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="43"/>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="43"/>
+      <c r="L21" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="L21" s="43"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43"/>
       <c r="P21" s="43"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="45"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="43"/>
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
       <c r="V21" s="45"/>
@@ -2419,15 +2785,16 @@
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="AB21" s="45"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="39"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
@@ -2439,7 +2806,7 @@
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
       <c r="R22" s="39"/>
-      <c r="S22" s="49"/>
+      <c r="S22" s="39"/>
       <c r="T22" s="49"/>
       <c r="U22" s="49"/>
       <c r="V22" s="49"/>
@@ -2448,8 +2815,9 @@
       <c r="Y22" s="49"/>
       <c r="Z22" s="49"/>
       <c r="AA22" s="49"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="AB22" s="49"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50" t="s">
         <v>351</v>
       </c>
@@ -2459,24 +2827,26 @@
       <c r="C23" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="56" t="s">
+        <v>442</v>
+      </c>
       <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
-      <c r="N23" s="51" t="s">
+      <c r="N23" s="52"/>
+      <c r="O23" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="O23" s="52"/>
       <c r="P23" s="52"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
-      <c r="S23" s="54"/>
+      <c r="S23" s="52"/>
       <c r="T23" s="54"/>
       <c r="U23" s="54"/>
       <c r="V23" s="54"/>
@@ -2485,8 +2855,9 @@
       <c r="Y23" s="54"/>
       <c r="Z23" s="54"/>
       <c r="AA23" s="54"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="AB23" s="54"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50" t="s">
         <v>36</v>
       </c>
@@ -2496,14 +2867,16 @@
       <c r="C24" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="57" t="s">
+        <v>447</v>
+      </c>
       <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="51" t="s">
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
@@ -2513,7 +2886,7 @@
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
-      <c r="S24" s="54"/>
+      <c r="S24" s="52"/>
       <c r="T24" s="54"/>
       <c r="U24" s="54"/>
       <c r="V24" s="54"/>
@@ -2522,8 +2895,9 @@
       <c r="Y24" s="54"/>
       <c r="Z24" s="54"/>
       <c r="AA24" s="54"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+      <c r="AB24" s="54"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="50" t="s">
         <v>357</v>
       </c>
@@ -2533,22 +2907,24 @@
       <c r="C25" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="57" t="s">
+        <v>422</v>
+      </c>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="56"/>
       <c r="M25" s="52"/>
       <c r="N25" s="52"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
       <c r="R25" s="52"/>
-      <c r="S25" s="57"/>
+      <c r="S25" s="52"/>
       <c r="T25" s="57"/>
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
@@ -2557,8 +2933,9 @@
       <c r="Y25" s="57"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="57"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+      <c r="AB25" s="57"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="50" t="s">
         <v>351</v>
       </c>
@@ -2568,7 +2945,9 @@
       <c r="C26" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="57" t="s">
+        <v>423</v>
+      </c>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
@@ -2581,9 +2960,9 @@
       <c r="N26" s="52"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="54"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="52"/>
       <c r="T26" s="54"/>
       <c r="U26" s="54"/>
       <c r="V26" s="54"/>
@@ -2592,8 +2971,9 @@
       <c r="Y26" s="54"/>
       <c r="Z26" s="54"/>
       <c r="AA26" s="54"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+      <c r="AB26" s="54"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="50" t="s">
         <v>351</v>
       </c>
@@ -2603,7 +2983,9 @@
       <c r="C27" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="D27" s="52"/>
+      <c r="D27" s="57" t="s">
+        <v>424</v>
+      </c>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
@@ -2618,7 +3000,7 @@
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
-      <c r="S27" s="54"/>
+      <c r="S27" s="52"/>
       <c r="T27" s="54"/>
       <c r="U27" s="54"/>
       <c r="V27" s="54"/>
@@ -2627,8 +3009,9 @@
       <c r="Y27" s="54"/>
       <c r="Z27" s="54"/>
       <c r="AA27" s="54"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+      <c r="AB27" s="54"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="50" t="s">
         <v>351</v>
       </c>
@@ -2638,22 +3021,24 @@
       <c r="C28" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="D28" s="52"/>
+      <c r="D28" s="57" t="s">
+        <v>425</v>
+      </c>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="53"/>
       <c r="M28" s="52"/>
       <c r="N28" s="52"/>
       <c r="O28" s="52"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="57"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="52"/>
       <c r="T28" s="57"/>
       <c r="U28" s="57"/>
       <c r="V28" s="57"/>
@@ -2662,8 +3047,9 @@
       <c r="Y28" s="57"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="57"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+      <c r="AB28" s="57"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="50" t="s">
         <v>368</v>
       </c>
@@ -2673,22 +3059,24 @@
       <c r="C29" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="D29" s="52"/>
+      <c r="D29" s="57" t="s">
+        <v>426</v>
+      </c>
       <c r="E29" s="52"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
       <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
       <c r="O29" s="52"/>
       <c r="P29" s="52"/>
       <c r="Q29" s="52"/>
       <c r="R29" s="52"/>
-      <c r="S29" s="57"/>
+      <c r="S29" s="52"/>
       <c r="T29" s="57"/>
       <c r="U29" s="57"/>
       <c r="V29" s="57"/>
@@ -2697,8 +3085,9 @@
       <c r="Y29" s="57"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="57"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+      <c r="AB29" s="57"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="50" t="s">
         <v>351</v>
       </c>
@@ -2708,22 +3097,24 @@
       <c r="C30" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="57" t="s">
+        <v>427</v>
+      </c>
       <c r="E30" s="52"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
       <c r="M30" s="52"/>
       <c r="N30" s="52"/>
       <c r="O30" s="52"/>
       <c r="P30" s="52"/>
       <c r="Q30" s="52"/>
       <c r="R30" s="52"/>
-      <c r="S30" s="57"/>
+      <c r="S30" s="52"/>
       <c r="T30" s="57"/>
       <c r="U30" s="57"/>
       <c r="V30" s="57"/>
@@ -2732,29 +3123,30 @@
       <c r="Y30" s="57"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="57"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+      <c r="AB30" s="57"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="50" t="s">
         <v>372</v>
       </c>
       <c r="B31" s="58"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="52"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
       <c r="O31" s="52"/>
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
-      <c r="S31" s="57"/>
+      <c r="S31" s="52"/>
       <c r="T31" s="57"/>
       <c r="U31" s="57"/>
       <c r="V31" s="57"/>
@@ -2763,29 +3155,30 @@
       <c r="Y31" s="57"/>
       <c r="Z31" s="57"/>
       <c r="AA31" s="57"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+      <c r="AB31" s="57"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="50" t="s">
         <v>159</v>
       </c>
       <c r="B32" s="58"/>
       <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53"/>
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
       <c r="O32" s="52"/>
       <c r="P32" s="52"/>
       <c r="Q32" s="52"/>
       <c r="R32" s="52"/>
-      <c r="S32" s="57"/>
+      <c r="S32" s="52"/>
       <c r="T32" s="57"/>
       <c r="U32" s="57"/>
       <c r="V32" s="57"/>
@@ -2794,27 +3187,28 @@
       <c r="Y32" s="57"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="57"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+      <c r="AB32" s="57"/>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="58"/>
       <c r="B33" s="58"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="52"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="53"/>
       <c r="M33" s="52"/>
       <c r="N33" s="52"/>
       <c r="O33" s="52"/>
       <c r="P33" s="52"/>
       <c r="Q33" s="52"/>
       <c r="R33" s="52"/>
-      <c r="S33" s="57"/>
+      <c r="S33" s="52"/>
       <c r="T33" s="57"/>
       <c r="U33" s="57"/>
       <c r="V33" s="57"/>
@@ -2823,8 +3217,9 @@
       <c r="Y33" s="57"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="57"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+      <c r="AB33" s="57"/>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="50" t="s">
         <v>36</v>
       </c>
@@ -2834,14 +3229,16 @@
       <c r="C34" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="57" t="s">
+        <v>428</v>
+      </c>
       <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="51" t="s">
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52"/>
+      <c r="I34" s="51"/>
       <c r="J34" s="52"/>
       <c r="K34" s="52"/>
       <c r="L34" s="52"/>
@@ -2851,7 +3248,7 @@
       <c r="P34" s="52"/>
       <c r="Q34" s="52"/>
       <c r="R34" s="52"/>
-      <c r="S34" s="54"/>
+      <c r="S34" s="52"/>
       <c r="T34" s="54"/>
       <c r="U34" s="54"/>
       <c r="V34" s="54"/>
@@ -2860,8 +3257,9 @@
       <c r="Y34" s="54"/>
       <c r="Z34" s="54"/>
       <c r="AA34" s="54"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+      <c r="AB34" s="54"/>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="50" t="s">
         <v>375</v>
       </c>
@@ -2871,22 +3269,24 @@
       <c r="C35" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="D35" s="52"/>
+      <c r="D35" s="57" t="s">
+        <v>429</v>
+      </c>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="51"/>
       <c r="J35" s="52"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="56"/>
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
       <c r="O35" s="52"/>
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
-      <c r="S35" s="57"/>
+      <c r="S35" s="52"/>
       <c r="T35" s="57"/>
       <c r="U35" s="57"/>
       <c r="V35" s="57"/>
@@ -2895,8 +3295,9 @@
       <c r="Y35" s="57"/>
       <c r="Z35" s="57"/>
       <c r="AA35" s="57"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+      <c r="AB35" s="57"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="50" t="s">
         <v>351</v>
       </c>
@@ -2906,24 +3307,26 @@
       <c r="C36" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="D36" s="52"/>
+      <c r="D36" s="57" t="s">
+        <v>430</v>
+      </c>
       <c r="E36" s="52"/>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="52"/>
+      <c r="G36" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="51"/>
       <c r="J36" s="52"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="56"/>
       <c r="M36" s="52"/>
       <c r="N36" s="52"/>
       <c r="O36" s="52"/>
       <c r="P36" s="52"/>
       <c r="Q36" s="52"/>
       <c r="R36" s="52"/>
-      <c r="S36" s="57"/>
+      <c r="S36" s="52"/>
       <c r="T36" s="57"/>
       <c r="U36" s="57"/>
       <c r="V36" s="57"/>
@@ -2932,8 +3335,9 @@
       <c r="Y36" s="57"/>
       <c r="Z36" s="57"/>
       <c r="AA36" s="57"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+      <c r="AB36" s="57"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="50" t="s">
         <v>351</v>
       </c>
@@ -2943,24 +3347,26 @@
       <c r="C37" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="D37" s="52"/>
+      <c r="D37" s="57" t="s">
+        <v>431</v>
+      </c>
       <c r="E37" s="52"/>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="52"/>
+      <c r="G37" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="G37" s="52"/>
       <c r="H37" s="52"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="53"/>
       <c r="M37" s="52"/>
       <c r="N37" s="52"/>
       <c r="O37" s="52"/>
       <c r="P37" s="52"/>
       <c r="Q37" s="52"/>
       <c r="R37" s="52"/>
-      <c r="S37" s="57"/>
+      <c r="S37" s="52"/>
       <c r="T37" s="57"/>
       <c r="U37" s="57"/>
       <c r="V37" s="57"/>
@@ -2969,8 +3375,9 @@
       <c r="Y37" s="57"/>
       <c r="Z37" s="57"/>
       <c r="AA37" s="57"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+      <c r="AB37" s="57"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="50" t="s">
         <v>384</v>
       </c>
@@ -2980,24 +3387,26 @@
       <c r="C38" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="D38" s="52"/>
+      <c r="D38" s="57" t="s">
+        <v>385</v>
+      </c>
       <c r="E38" s="52"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51" t="s">
+      <c r="F38" s="52"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="H38" s="52"/>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="53"/>
       <c r="M38" s="52"/>
       <c r="N38" s="52"/>
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
       <c r="R38" s="52"/>
-      <c r="S38" s="57"/>
+      <c r="S38" s="52"/>
       <c r="T38" s="57"/>
       <c r="U38" s="57"/>
       <c r="V38" s="57"/>
@@ -3006,8 +3415,9 @@
       <c r="Y38" s="57"/>
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+      <c r="AB38" s="57"/>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="50" t="s">
         <v>387</v>
       </c>
@@ -3017,26 +3427,28 @@
       <c r="C39" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="D39" s="52"/>
+      <c r="D39" s="57" t="s">
+        <v>389</v>
+      </c>
       <c r="E39" s="52"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51" t="s">
+      <c r="F39" s="52"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="H39" s="52"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="51" t="s">
+      <c r="K39" s="52"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="M39" s="52"/>
       <c r="N39" s="52"/>
       <c r="O39" s="52"/>
       <c r="P39" s="52"/>
       <c r="Q39" s="52"/>
       <c r="R39" s="52"/>
-      <c r="S39" s="57"/>
+      <c r="S39" s="52"/>
       <c r="T39" s="57"/>
       <c r="U39" s="57"/>
       <c r="V39" s="57"/>
@@ -3045,8 +3457,9 @@
       <c r="Y39" s="57"/>
       <c r="Z39" s="57"/>
       <c r="AA39" s="57"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+      <c r="AB39" s="57"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="50" t="s">
         <v>351</v>
       </c>
@@ -3056,22 +3469,24 @@
       <c r="C40" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="D40" s="52"/>
+      <c r="D40" s="57" t="s">
+        <v>432</v>
+      </c>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="53"/>
       <c r="M40" s="52"/>
       <c r="N40" s="52"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
       <c r="R40" s="52"/>
-      <c r="S40" s="57"/>
+      <c r="S40" s="52"/>
       <c r="T40" s="57"/>
       <c r="U40" s="57"/>
       <c r="V40" s="57"/>
@@ -3080,8 +3495,9 @@
       <c r="Y40" s="57"/>
       <c r="Z40" s="57"/>
       <c r="AA40" s="57"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+      <c r="AB40" s="57"/>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="50" t="s">
         <v>393</v>
       </c>
@@ -3091,22 +3507,24 @@
       <c r="C41" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="D41" s="52"/>
+      <c r="D41" s="57" t="s">
+        <v>433</v>
+      </c>
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="53"/>
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
       <c r="O41" s="52"/>
       <c r="P41" s="52"/>
       <c r="Q41" s="52"/>
       <c r="R41" s="52"/>
-      <c r="S41" s="57"/>
+      <c r="S41" s="52"/>
       <c r="T41" s="57"/>
       <c r="U41" s="57"/>
       <c r="V41" s="57"/>
@@ -3115,8 +3533,9 @@
       <c r="Y41" s="57"/>
       <c r="Z41" s="57"/>
       <c r="AA41" s="57"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+      <c r="AB41" s="57"/>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="50" t="s">
         <v>351</v>
       </c>
@@ -3126,22 +3545,24 @@
       <c r="C42" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="57" t="s">
+        <v>448</v>
+      </c>
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
       <c r="J42" s="52"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="53"/>
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
       <c r="O42" s="52"/>
       <c r="P42" s="52"/>
       <c r="Q42" s="52"/>
       <c r="R42" s="52"/>
-      <c r="S42" s="57"/>
+      <c r="S42" s="52"/>
       <c r="T42" s="57"/>
       <c r="U42" s="57"/>
       <c r="V42" s="57"/>
@@ -3150,8 +3571,9 @@
       <c r="Y42" s="57"/>
       <c r="Z42" s="57"/>
       <c r="AA42" s="57"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+      <c r="AB42" s="57"/>
+    </row>
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="50" t="s">
         <v>398</v>
       </c>
@@ -3161,22 +3583,24 @@
       <c r="C43" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="D43" s="52"/>
+      <c r="D43" s="57" t="s">
+        <v>434</v>
+      </c>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="53"/>
       <c r="M43" s="52"/>
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>
       <c r="P43" s="52"/>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
-      <c r="S43" s="57"/>
+      <c r="S43" s="52"/>
       <c r="T43" s="57"/>
       <c r="U43" s="57"/>
       <c r="V43" s="57"/>
@@ -3185,8 +3609,9 @@
       <c r="Y43" s="57"/>
       <c r="Z43" s="57"/>
       <c r="AA43" s="57"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+      <c r="AB43" s="57"/>
+    </row>
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="50" t="s">
         <v>398</v>
       </c>
@@ -3196,22 +3621,24 @@
       <c r="C44" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="D44" s="52"/>
+      <c r="D44" s="57" t="s">
+        <v>449</v>
+      </c>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="53"/>
       <c r="M44" s="52"/>
       <c r="N44" s="52"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
       <c r="R44" s="52"/>
-      <c r="S44" s="57"/>
+      <c r="S44" s="52"/>
       <c r="T44" s="57"/>
       <c r="U44" s="57"/>
       <c r="V44" s="57"/>
@@ -3220,8 +3647,9 @@
       <c r="Y44" s="57"/>
       <c r="Z44" s="57"/>
       <c r="AA44" s="57"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+      <c r="AB44" s="57"/>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="50" t="s">
         <v>368</v>
       </c>
@@ -3231,22 +3659,24 @@
       <c r="C45" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="D45" s="52"/>
+      <c r="D45" s="57" t="s">
+        <v>450</v>
+      </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
       <c r="G45" s="52"/>
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="53"/>
       <c r="M45" s="52"/>
       <c r="N45" s="52"/>
       <c r="O45" s="52"/>
       <c r="P45" s="52"/>
       <c r="Q45" s="52"/>
       <c r="R45" s="52"/>
-      <c r="S45" s="57"/>
+      <c r="S45" s="52"/>
       <c r="T45" s="57"/>
       <c r="U45" s="57"/>
       <c r="V45" s="57"/>
@@ -3255,8 +3685,9 @@
       <c r="Y45" s="57"/>
       <c r="Z45" s="57"/>
       <c r="AA45" s="57"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+      <c r="AB45" s="57"/>
+    </row>
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="50" t="s">
         <v>351</v>
       </c>
@@ -3266,22 +3697,24 @@
       <c r="C46" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="52"/>
+      <c r="D46" s="57" t="s">
+        <v>435</v>
+      </c>
       <c r="E46" s="52"/>
       <c r="F46" s="52"/>
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="53"/>
       <c r="M46" s="52"/>
       <c r="N46" s="52"/>
       <c r="O46" s="52"/>
       <c r="P46" s="52"/>
       <c r="Q46" s="52"/>
       <c r="R46" s="52"/>
-      <c r="S46" s="57"/>
+      <c r="S46" s="52"/>
       <c r="T46" s="57"/>
       <c r="U46" s="57"/>
       <c r="V46" s="57"/>
@@ -3290,8 +3723,9 @@
       <c r="Y46" s="57"/>
       <c r="Z46" s="57"/>
       <c r="AA46" s="57"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+      <c r="AB46" s="57"/>
+    </row>
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="50" t="s">
         <v>398</v>
       </c>
@@ -3301,22 +3735,24 @@
       <c r="C47" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="D47" s="52"/>
+      <c r="D47" s="57" t="s">
+        <v>449</v>
+      </c>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="53"/>
       <c r="M47" s="52"/>
       <c r="N47" s="52"/>
       <c r="O47" s="52"/>
       <c r="P47" s="52"/>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
-      <c r="S47" s="57"/>
+      <c r="S47" s="52"/>
       <c r="T47" s="57"/>
       <c r="U47" s="57"/>
       <c r="V47" s="57"/>
@@ -3325,29 +3761,30 @@
       <c r="Y47" s="57"/>
       <c r="Z47" s="57"/>
       <c r="AA47" s="57"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+      <c r="AB47" s="57"/>
+    </row>
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="50" t="s">
         <v>372</v>
       </c>
       <c r="B48" s="58"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="52"/>
       <c r="F48" s="52"/>
       <c r="G48" s="52"/>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
       <c r="J48" s="52"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="53"/>
       <c r="M48" s="52"/>
       <c r="N48" s="52"/>
       <c r="O48" s="52"/>
       <c r="P48" s="52"/>
       <c r="Q48" s="52"/>
       <c r="R48" s="52"/>
-      <c r="S48" s="57"/>
+      <c r="S48" s="52"/>
       <c r="T48" s="57"/>
       <c r="U48" s="57"/>
       <c r="V48" s="57"/>
@@ -3356,29 +3793,30 @@
       <c r="Y48" s="57"/>
       <c r="Z48" s="57"/>
       <c r="AA48" s="57"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+      <c r="AB48" s="57"/>
+    </row>
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="50" t="s">
         <v>159</v>
       </c>
       <c r="B49" s="58"/>
       <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="52"/>
       <c r="F49" s="52"/>
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="53"/>
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
       <c r="O49" s="52"/>
       <c r="P49" s="52"/>
       <c r="Q49" s="52"/>
       <c r="R49" s="52"/>
-      <c r="S49" s="57"/>
+      <c r="S49" s="52"/>
       <c r="T49" s="57"/>
       <c r="U49" s="57"/>
       <c r="V49" s="57"/>
@@ -3387,15 +3825,16 @@
       <c r="Y49" s="57"/>
       <c r="Z49" s="57"/>
       <c r="AA49" s="57"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+      <c r="AB49" s="57"/>
+    </row>
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="50"/>
       <c r="B50" s="59"/>
       <c r="C50" s="53"/>
-      <c r="D50" s="52"/>
+      <c r="D50" s="53"/>
       <c r="E50" s="52"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52"/>
@@ -3407,7 +3846,7 @@
       <c r="P50" s="52"/>
       <c r="Q50" s="52"/>
       <c r="R50" s="52"/>
-      <c r="S50" s="60"/>
+      <c r="S50" s="52"/>
       <c r="T50" s="60"/>
       <c r="U50" s="60"/>
       <c r="V50" s="60"/>
@@ -3416,8 +3855,9 @@
       <c r="Y50" s="60"/>
       <c r="Z50" s="60"/>
       <c r="AA50" s="60"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+      <c r="AB50" s="60"/>
+    </row>
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="50" t="s">
         <v>36</v>
       </c>
@@ -3427,14 +3867,16 @@
       <c r="C51" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="D51" s="52"/>
+      <c r="D51" s="57" t="s">
+        <v>436</v>
+      </c>
       <c r="E51" s="52"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="51" t="s">
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H51" s="51"/>
-      <c r="I51" s="52"/>
+      <c r="I51" s="51"/>
       <c r="J51" s="52"/>
       <c r="K51" s="52"/>
       <c r="L51" s="52"/>
@@ -3444,7 +3886,7 @@
       <c r="P51" s="52"/>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
-      <c r="S51" s="60"/>
+      <c r="S51" s="52"/>
       <c r="T51" s="60"/>
       <c r="U51" s="60"/>
       <c r="V51" s="60"/>
@@ -3453,8 +3895,9 @@
       <c r="Y51" s="60"/>
       <c r="Z51" s="60"/>
       <c r="AA51" s="60"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+      <c r="AB51" s="60"/>
+    </row>
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="50" t="s">
         <v>368</v>
       </c>
@@ -3464,22 +3907,24 @@
       <c r="C52" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="52"/>
+      <c r="D52" s="57" t="s">
+        <v>427</v>
+      </c>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
       <c r="G52" s="52"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="53"/>
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
       <c r="O52" s="52"/>
       <c r="P52" s="52"/>
       <c r="Q52" s="52"/>
       <c r="R52" s="52"/>
-      <c r="S52" s="57"/>
+      <c r="S52" s="52"/>
       <c r="T52" s="57"/>
       <c r="U52" s="57"/>
       <c r="V52" s="57"/>
@@ -3488,8 +3933,9 @@
       <c r="Y52" s="57"/>
       <c r="Z52" s="57"/>
       <c r="AA52" s="57"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+      <c r="AB52" s="57"/>
+    </row>
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="50" t="s">
         <v>351</v>
       </c>
@@ -3499,22 +3945,24 @@
       <c r="C53" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="52"/>
+      <c r="D53" s="57" t="s">
+        <v>435</v>
+      </c>
       <c r="E53" s="52"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="53"/>
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
       <c r="O53" s="52"/>
       <c r="P53" s="52"/>
       <c r="Q53" s="52"/>
       <c r="R53" s="52"/>
-      <c r="S53" s="57"/>
+      <c r="S53" s="52"/>
       <c r="T53" s="57"/>
       <c r="U53" s="57"/>
       <c r="V53" s="57"/>
@@ -3523,8 +3971,9 @@
       <c r="Y53" s="57"/>
       <c r="Z53" s="57"/>
       <c r="AA53" s="57"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+      <c r="AB53" s="57"/>
+    </row>
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="50" t="s">
         <v>398</v>
       </c>
@@ -3534,22 +3983,24 @@
       <c r="C54" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="D54" s="52"/>
+      <c r="D54" s="57" t="s">
+        <v>449</v>
+      </c>
       <c r="E54" s="52"/>
       <c r="F54" s="52"/>
       <c r="G54" s="52"/>
       <c r="H54" s="52"/>
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="53"/>
       <c r="M54" s="52"/>
       <c r="N54" s="52"/>
       <c r="O54" s="52"/>
       <c r="P54" s="52"/>
       <c r="Q54" s="52"/>
       <c r="R54" s="52"/>
-      <c r="S54" s="57"/>
+      <c r="S54" s="52"/>
       <c r="T54" s="57"/>
       <c r="U54" s="57"/>
       <c r="V54" s="57"/>
@@ -3558,8 +4009,9 @@
       <c r="Y54" s="57"/>
       <c r="Z54" s="57"/>
       <c r="AA54" s="57"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+      <c r="AB54" s="57"/>
+    </row>
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="50" t="s">
         <v>351</v>
       </c>
@@ -3569,22 +4021,24 @@
       <c r="C55" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="D55" s="52"/>
+      <c r="D55" s="57" t="s">
+        <v>451</v>
+      </c>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="53"/>
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
       <c r="O55" s="52"/>
       <c r="P55" s="52"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
-      <c r="S55" s="57"/>
+      <c r="S55" s="52"/>
       <c r="T55" s="57"/>
       <c r="U55" s="57"/>
       <c r="V55" s="57"/>
@@ -3593,29 +4047,30 @@
       <c r="Y55" s="57"/>
       <c r="Z55" s="57"/>
       <c r="AA55" s="57"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+      <c r="AB55" s="57"/>
+    </row>
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="50" t="s">
         <v>372</v>
       </c>
       <c r="B56" s="58"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="52"/>
       <c r="F56" s="52"/>
       <c r="G56" s="52"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="53"/>
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
       <c r="O56" s="52"/>
       <c r="P56" s="52"/>
       <c r="Q56" s="52"/>
       <c r="R56" s="52"/>
-      <c r="S56" s="57"/>
+      <c r="S56" s="52"/>
       <c r="T56" s="57"/>
       <c r="U56" s="57"/>
       <c r="V56" s="57"/>
@@ -3624,17 +4079,18 @@
       <c r="Y56" s="57"/>
       <c r="Z56" s="57"/>
       <c r="AA56" s="57"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+      <c r="AB56" s="57"/>
+    </row>
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="50" t="s">
         <v>159</v>
       </c>
       <c r="B57" s="50"/>
       <c r="C57" s="51"/>
-      <c r="D57" s="52"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="52"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
       <c r="J57" s="52"/>
@@ -3646,7 +4102,7 @@
       <c r="P57" s="52"/>
       <c r="Q57" s="52"/>
       <c r="R57" s="52"/>
-      <c r="S57" s="60"/>
+      <c r="S57" s="52"/>
       <c r="T57" s="60"/>
       <c r="U57" s="60"/>
       <c r="V57" s="60"/>
@@ -3655,15 +4111,16 @@
       <c r="Y57" s="60"/>
       <c r="Z57" s="60"/>
       <c r="AA57" s="60"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+      <c r="AB57" s="60"/>
+    </row>
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="50"/>
       <c r="B58" s="50"/>
       <c r="C58" s="51"/>
-      <c r="D58" s="52"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="52"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52"/>
@@ -3675,7 +4132,7 @@
       <c r="P58" s="52"/>
       <c r="Q58" s="52"/>
       <c r="R58" s="52"/>
-      <c r="S58" s="60"/>
+      <c r="S58" s="52"/>
       <c r="T58" s="60"/>
       <c r="U58" s="60"/>
       <c r="V58" s="60"/>
@@ -3684,8 +4141,9 @@
       <c r="Y58" s="60"/>
       <c r="Z58" s="60"/>
       <c r="AA58" s="60"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+      <c r="AB58" s="60"/>
+    </row>
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="50" t="s">
         <v>36</v>
       </c>
@@ -3695,14 +4153,16 @@
       <c r="C59" s="51" t="s">
         <v>411</v>
       </c>
-      <c r="D59" s="52"/>
+      <c r="D59" s="57" t="s">
+        <v>452</v>
+      </c>
       <c r="E59" s="52"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="51" t="s">
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H59" s="51"/>
-      <c r="I59" s="52"/>
+      <c r="I59" s="51"/>
       <c r="J59" s="52"/>
       <c r="K59" s="52"/>
       <c r="L59" s="52"/>
@@ -3712,7 +4172,7 @@
       <c r="P59" s="52"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
-      <c r="S59" s="60"/>
+      <c r="S59" s="52"/>
       <c r="T59" s="60"/>
       <c r="U59" s="60"/>
       <c r="V59" s="60"/>
@@ -3721,8 +4181,9 @@
       <c r="Y59" s="60"/>
       <c r="Z59" s="60"/>
       <c r="AA59" s="60"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+      <c r="AB59" s="60"/>
+    </row>
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="50" t="s">
         <v>351</v>
       </c>
@@ -3732,10 +4193,12 @@
       <c r="C60" s="51" t="s">
         <v>413</v>
       </c>
-      <c r="D60" s="52"/>
+      <c r="D60" s="57" t="s">
+        <v>437</v>
+      </c>
       <c r="E60" s="52"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
       <c r="H60" s="52"/>
       <c r="I60" s="52"/>
       <c r="J60" s="52"/>
@@ -3747,7 +4210,7 @@
       <c r="P60" s="52"/>
       <c r="Q60" s="52"/>
       <c r="R60" s="52"/>
-      <c r="S60" s="60"/>
+      <c r="S60" s="52"/>
       <c r="T60" s="60"/>
       <c r="U60" s="60"/>
       <c r="V60" s="60"/>
@@ -3756,8 +4219,9 @@
       <c r="Y60" s="60"/>
       <c r="Z60" s="60"/>
       <c r="AA60" s="60"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+      <c r="AB60" s="60"/>
+    </row>
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="50" t="s">
         <v>351</v>
       </c>
@@ -3767,10 +4231,12 @@
       <c r="C61" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="D61" s="52"/>
+      <c r="D61" s="57" t="s">
+        <v>438</v>
+      </c>
       <c r="E61" s="52"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52"/>
@@ -3782,7 +4248,7 @@
       <c r="P61" s="52"/>
       <c r="Q61" s="52"/>
       <c r="R61" s="52"/>
-      <c r="S61" s="60"/>
+      <c r="S61" s="52"/>
       <c r="T61" s="60"/>
       <c r="U61" s="60"/>
       <c r="V61" s="60"/>
@@ -3791,8 +4257,9 @@
       <c r="Y61" s="60"/>
       <c r="Z61" s="60"/>
       <c r="AA61" s="60"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+      <c r="AB61" s="60"/>
+    </row>
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="50" t="s">
         <v>351</v>
       </c>
@@ -3802,10 +4269,12 @@
       <c r="C62" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="D62" s="52"/>
+      <c r="D62" s="57" t="s">
+        <v>439</v>
+      </c>
       <c r="E62" s="52"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52"/>
@@ -3817,7 +4286,7 @@
       <c r="P62" s="52"/>
       <c r="Q62" s="52"/>
       <c r="R62" s="52"/>
-      <c r="S62" s="60"/>
+      <c r="S62" s="52"/>
       <c r="T62" s="60"/>
       <c r="U62" s="60"/>
       <c r="V62" s="60"/>
@@ -3826,8 +4295,9 @@
       <c r="Y62" s="60"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+      <c r="AB62" s="60"/>
+    </row>
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="50" t="s">
         <v>351</v>
       </c>
@@ -3837,10 +4307,12 @@
       <c r="C63" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="D63" s="52"/>
+      <c r="D63" s="57" t="s">
+        <v>440</v>
+      </c>
       <c r="E63" s="52"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
       <c r="J63" s="52"/>
@@ -3852,7 +4324,7 @@
       <c r="P63" s="52"/>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
-      <c r="S63" s="60"/>
+      <c r="S63" s="52"/>
       <c r="T63" s="60"/>
       <c r="U63" s="60"/>
       <c r="V63" s="60"/>
@@ -3861,8 +4333,9 @@
       <c r="Y63" s="60"/>
       <c r="Z63" s="60"/>
       <c r="AA63" s="60"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+      <c r="AB63" s="60"/>
+    </row>
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="50" t="s">
         <v>351</v>
       </c>
@@ -3872,22 +4345,24 @@
       <c r="C64" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="D64" s="52"/>
+      <c r="D64" s="57" t="s">
+        <v>441</v>
+      </c>
       <c r="E64" s="52"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
       <c r="H64" s="51"/>
-      <c r="I64" s="52"/>
+      <c r="I64" s="51"/>
       <c r="J64" s="52"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="51"/>
       <c r="M64" s="52"/>
       <c r="N64" s="52"/>
       <c r="O64" s="52"/>
       <c r="P64" s="52"/>
       <c r="Q64" s="52"/>
       <c r="R64" s="52"/>
-      <c r="S64" s="60"/>
+      <c r="S64" s="52"/>
       <c r="T64" s="60"/>
       <c r="U64" s="60"/>
       <c r="V64" s="60"/>
@@ -3896,8 +4371,9 @@
       <c r="Y64" s="60"/>
       <c r="Z64" s="60"/>
       <c r="AA64" s="60"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+      <c r="AB64" s="60"/>
+    </row>
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="50" t="s">
         <v>351</v>
       </c>
@@ -3907,22 +4383,24 @@
       <c r="C65" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="D65" s="52"/>
+      <c r="D65" s="57" t="s">
+        <v>389</v>
+      </c>
       <c r="E65" s="52"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="51"/>
-      <c r="I65" s="52"/>
+      <c r="I65" s="51"/>
       <c r="J65" s="52"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="51"/>
       <c r="M65" s="52"/>
       <c r="N65" s="52"/>
       <c r="O65" s="52"/>
       <c r="P65" s="52"/>
       <c r="Q65" s="52"/>
       <c r="R65" s="52"/>
-      <c r="S65" s="60"/>
+      <c r="S65" s="52"/>
       <c r="T65" s="60"/>
       <c r="U65" s="60"/>
       <c r="V65" s="60"/>
@@ -3931,17 +4409,18 @@
       <c r="Y65" s="60"/>
       <c r="Z65" s="60"/>
       <c r="AA65" s="60"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+      <c r="AB65" s="60"/>
+    </row>
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="50" t="s">
         <v>159</v>
       </c>
       <c r="B66" s="50"/>
       <c r="C66" s="51"/>
-      <c r="D66" s="52"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="52"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
       <c r="J66" s="52"/>
@@ -3953,7 +4432,7 @@
       <c r="P66" s="52"/>
       <c r="Q66" s="52"/>
       <c r="R66" s="52"/>
-      <c r="S66" s="60"/>
+      <c r="S66" s="52"/>
       <c r="T66" s="60"/>
       <c r="U66" s="60"/>
       <c r="V66" s="60"/>
@@ -3962,35 +4441,37 @@
       <c r="Y66" s="60"/>
       <c r="Z66" s="60"/>
       <c r="AA66" s="60"/>
+      <c r="AB66" s="60"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D2:E66">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F66">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.29"/>
-    <col customWidth="1" min="2" max="16" width="45.86"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="17" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4000,10 +4481,12 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -4015,8 +4498,9 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -4026,7 +4510,9 @@
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" t="s">
+        <v>443</v>
+      </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -4039,8 +4525,9 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
@@ -4050,8 +4537,11 @@
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="D3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -4061,7 +4551,9 @@
       <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" t="s">
+        <v>445</v>
+      </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -4074,8 +4566,9 @@
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -4085,7 +4578,9 @@
       <c r="C5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" t="s">
+        <v>453</v>
+      </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
@@ -4098,8 +4593,9 @@
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>47</v>
       </c>
@@ -4109,8 +4605,11 @@
       <c r="C6" s="31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="D6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>47</v>
       </c>
@@ -4120,8 +4619,11 @@
       <c r="C7" s="31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="D7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>47</v>
       </c>
@@ -4131,85 +4633,109 @@
       <c r="C8" s="31" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="D8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="24">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="D9" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="24">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="D10" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="24">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="D11" s="48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="24">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="D12" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="24">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="D13" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="24">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="D14" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="24">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="D15" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
         <v>83</v>
       </c>
@@ -4219,11 +4745,14 @@
       <c r="C16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+      <c r="D16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
         <v>83</v>
       </c>
@@ -4233,11 +4762,14 @@
       <c r="C17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+      <c r="D17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21" t="s">
         <v>83</v>
       </c>
@@ -4247,11 +4779,14 @@
       <c r="C18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="D18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="s">
         <v>83</v>
       </c>
@@ -4261,11 +4796,14 @@
       <c r="C19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+      <c r="D19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>83</v>
       </c>
@@ -4275,11 +4813,14 @@
       <c r="C20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="D20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>83</v>
       </c>
@@ -4289,11 +4830,14 @@
       <c r="C21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="D21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>83</v>
       </c>
@@ -4303,11 +4847,14 @@
       <c r="C22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="D22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>83</v>
       </c>
@@ -4317,11 +4864,14 @@
       <c r="C23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="D23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
         <v>83</v>
       </c>
@@ -4331,11 +4881,14 @@
       <c r="C24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+      <c r="D24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
         <v>83</v>
       </c>
@@ -4345,11 +4898,14 @@
       <c r="C25" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+      <c r="D25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
         <v>83</v>
       </c>
@@ -4359,11 +4915,14 @@
       <c r="C26" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+      <c r="D26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>83</v>
       </c>
@@ -4373,11 +4932,14 @@
       <c r="C27" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+      <c r="D27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
         <v>83</v>
       </c>
@@ -4387,11 +4949,14 @@
       <c r="C28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+      <c r="D28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>83</v>
       </c>
@@ -4401,11 +4966,14 @@
       <c r="C29" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+      <c r="D29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21" t="s">
         <v>83</v>
       </c>
@@ -4415,11 +4983,14 @@
       <c r="C30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="21">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+      <c r="D30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21" t="s">
         <v>83</v>
       </c>
@@ -4429,11 +5000,14 @@
       <c r="C31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="21">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+      <c r="D31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="s">
         <v>83</v>
       </c>
@@ -4443,11 +5017,14 @@
       <c r="C32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="21">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+      <c r="D32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>83</v>
       </c>
@@ -4457,11 +5034,14 @@
       <c r="C33" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="21">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+      <c r="D33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="s">
         <v>83</v>
       </c>
@@ -4471,11 +5051,14 @@
       <c r="C34" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="21">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+      <c r="D34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
         <v>83</v>
       </c>
@@ -4485,11 +5068,14 @@
       <c r="C35" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="21">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+      <c r="D35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
         <v>83</v>
       </c>
@@ -4499,11 +5085,14 @@
       <c r="C36" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="21">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+      <c r="D36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="21" t="s">
         <v>83</v>
       </c>
@@ -4513,11 +5102,14 @@
       <c r="C37" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="21">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+      <c r="D37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21" t="s">
         <v>83</v>
       </c>
@@ -4527,11 +5119,14 @@
       <c r="C38" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+      <c r="D38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21" t="s">
         <v>83</v>
       </c>
@@ -4541,11 +5136,14 @@
       <c r="C39" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+      <c r="D39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21" t="s">
         <v>83</v>
       </c>
@@ -4555,11 +5153,14 @@
       <c r="C40" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+      <c r="D40" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21" t="s">
         <v>83</v>
       </c>
@@ -4569,11 +5170,14 @@
       <c r="C41" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+      <c r="D41" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21" t="s">
         <v>83</v>
       </c>
@@ -4583,11 +5187,14 @@
       <c r="C42" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+      <c r="D42" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21" t="s">
         <v>83</v>
       </c>
@@ -4597,11 +5204,14 @@
       <c r="C43" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+      <c r="D43" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21" t="s">
         <v>83</v>
       </c>
@@ -4611,11 +5221,14 @@
       <c r="C44" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+      <c r="D44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="21" t="s">
         <v>83</v>
       </c>
@@ -4625,11 +5238,14 @@
       <c r="C45" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+      <c r="D45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21" t="s">
         <v>83</v>
       </c>
@@ -4639,11 +5255,14 @@
       <c r="C46" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+      <c r="D46" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="21" t="s">
         <v>83</v>
       </c>
@@ -4653,11 +5272,14 @@
       <c r="C47" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+      <c r="D47" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="21" t="s">
         <v>83</v>
       </c>
@@ -4667,11 +5289,14 @@
       <c r="C48" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+      <c r="D48" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21" t="s">
         <v>83</v>
       </c>
@@ -4681,11 +5306,14 @@
       <c r="C49" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+      <c r="D49" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="21" t="s">
         <v>83</v>
       </c>
@@ -4695,11 +5323,14 @@
       <c r="C50" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D50" s="21">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+      <c r="D50" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="21" t="s">
         <v>83</v>
       </c>
@@ -4709,11 +5340,14 @@
       <c r="C51" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+      <c r="D51" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="21" t="s">
         <v>83</v>
       </c>
@@ -4723,11 +5357,14 @@
       <c r="C52" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+      <c r="D52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="21" t="s">
         <v>83</v>
       </c>
@@ -4737,11 +5374,14 @@
       <c r="C53" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D53" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+      <c r="D53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="21" t="s">
         <v>83</v>
       </c>
@@ -4751,11 +5391,14 @@
       <c r="C54" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+      <c r="D54" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="21" t="s">
         <v>83</v>
       </c>
@@ -4765,11 +5408,14 @@
       <c r="C55" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+      <c r="D55" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="21" t="s">
         <v>83</v>
       </c>
@@ -4779,11 +5425,14 @@
       <c r="C56" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+      <c r="D56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="21" t="s">
         <v>83</v>
       </c>
@@ -4793,11 +5442,14 @@
       <c r="C57" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+      <c r="D57" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="s">
         <v>83</v>
       </c>
@@ -4807,11 +5459,14 @@
       <c r="C58" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+      <c r="D58" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="21" t="s">
         <v>83</v>
       </c>
@@ -4821,11 +5476,14 @@
       <c r="C59" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+      <c r="D59" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="21" t="s">
         <v>83</v>
       </c>
@@ -4835,11 +5493,14 @@
       <c r="C60" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D60" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+      <c r="D60" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="21" t="s">
         <v>83</v>
       </c>
@@ -4849,11 +5510,14 @@
       <c r="C61" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D61" s="21">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+      <c r="D61" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="21" t="s">
         <v>83</v>
       </c>
@@ -4863,11 +5527,14 @@
       <c r="C62" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D62" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+      <c r="D62" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="21" t="s">
         <v>83</v>
       </c>
@@ -4877,11 +5544,14 @@
       <c r="C63" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D63" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+      <c r="D63" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="21" t="s">
         <v>83</v>
       </c>
@@ -4891,11 +5561,14 @@
       <c r="C64" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D64" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+      <c r="D64" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="21" t="s">
         <v>83</v>
       </c>
@@ -4905,11 +5578,14 @@
       <c r="C65" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D65" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+      <c r="D65" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="21" t="s">
         <v>83</v>
       </c>
@@ -4919,11 +5595,14 @@
       <c r="C66" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D66" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+      <c r="D66" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E66" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="21" t="s">
         <v>83</v>
       </c>
@@ -4933,11 +5612,14 @@
       <c r="C67" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D67" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+      <c r="D67" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="21" t="s">
         <v>83</v>
       </c>
@@ -4947,11 +5629,14 @@
       <c r="C68" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D68" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+      <c r="D68" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="21" t="s">
         <v>83</v>
       </c>
@@ -4961,11 +5646,14 @@
       <c r="C69" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D69" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+      <c r="D69" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="21" t="s">
         <v>83</v>
       </c>
@@ -4975,11 +5663,14 @@
       <c r="C70" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D70" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+      <c r="D70" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="21" t="s">
         <v>83</v>
       </c>
@@ -4989,11 +5680,14 @@
       <c r="C71" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D71" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+      <c r="D71" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E71" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="21" t="s">
         <v>83</v>
       </c>
@@ -5003,11 +5697,14 @@
       <c r="C72" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D72" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+      <c r="D72" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E72" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="21" t="s">
         <v>83</v>
       </c>
@@ -5017,11 +5714,14 @@
       <c r="C73" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D73" s="21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+      <c r="D73" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="21" t="s">
         <v>83</v>
       </c>
@@ -5031,11 +5731,14 @@
       <c r="C74" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D74" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+      <c r="D74" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E74" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="21" t="s">
         <v>83</v>
       </c>
@@ -5045,11 +5748,14 @@
       <c r="C75" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D75" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+      <c r="D75" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="21" t="s">
         <v>83</v>
       </c>
@@ -5059,11 +5765,14 @@
       <c r="C76" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D76" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+      <c r="D76" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="21" t="s">
         <v>83</v>
       </c>
@@ -5073,11 +5782,14 @@
       <c r="C77" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D77" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+      <c r="D77" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E77" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="21" t="s">
         <v>83</v>
       </c>
@@ -5087,11 +5799,14 @@
       <c r="C78" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D78" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+      <c r="D78" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E78" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="21" t="s">
         <v>83</v>
       </c>
@@ -5101,11 +5816,14 @@
       <c r="C79" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D79" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+      <c r="D79" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="21" t="s">
         <v>83</v>
       </c>
@@ -5115,11 +5833,14 @@
       <c r="C80" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D80" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+      <c r="D80" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E80" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="21" t="s">
         <v>83</v>
       </c>
@@ -5129,11 +5850,14 @@
       <c r="C81" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D81" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+      <c r="D81" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E81" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="21" t="s">
         <v>83</v>
       </c>
@@ -5143,11 +5867,14 @@
       <c r="C82" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D82" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+      <c r="D82" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E82" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="21" t="s">
         <v>83</v>
       </c>
@@ -5157,11 +5884,14 @@
       <c r="C83" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D83" s="21">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+      <c r="D83" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="21" t="s">
         <v>83</v>
       </c>
@@ -5171,11 +5901,14 @@
       <c r="C84" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D84" s="21">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+      <c r="D84" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E84" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="21" t="s">
         <v>83</v>
       </c>
@@ -5185,11 +5918,14 @@
       <c r="C85" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D85" s="21">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+      <c r="D85" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E85" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="21" t="s">
         <v>83</v>
       </c>
@@ -5199,11 +5935,14 @@
       <c r="C86" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D86" s="21">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+      <c r="D86" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E86" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="21" t="s">
         <v>83</v>
       </c>
@@ -5213,11 +5952,14 @@
       <c r="C87" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D87" s="21">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+      <c r="D87" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="21" t="s">
         <v>83</v>
       </c>
@@ -5227,11 +5969,14 @@
       <c r="C88" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D88" s="21">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+      <c r="D88" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="21" t="s">
         <v>83</v>
       </c>
@@ -5241,11 +5986,14 @@
       <c r="C89" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D89" s="21">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+      <c r="D89" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="21" t="s">
         <v>83</v>
       </c>
@@ -5255,11 +6003,14 @@
       <c r="C90" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D90" s="21">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+      <c r="D90" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E90" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="21" t="s">
         <v>83</v>
       </c>
@@ -5269,11 +6020,14 @@
       <c r="C91" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="21">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+      <c r="D91" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E91" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="21" t="s">
         <v>83</v>
       </c>
@@ -5283,699 +6037,869 @@
       <c r="C92" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D92" s="21">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+      <c r="D92" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E92" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="47"/>
       <c r="C93" s="48"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+      <c r="D93" s="48"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="47"/>
       <c r="C94" s="48"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+      <c r="D94" s="48"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="47"/>
       <c r="C95" s="48"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+      <c r="D95" s="48"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="47"/>
       <c r="C96" s="48"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+      <c r="D96" s="48"/>
+    </row>
+    <row r="97" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="47"/>
       <c r="C97" s="48"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+      <c r="D97" s="48"/>
+    </row>
+    <row r="98" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="47"/>
       <c r="C98" s="48"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+      <c r="D98" s="48"/>
+    </row>
+    <row r="99" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="47"/>
       <c r="C99" s="48"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+      <c r="D99" s="48"/>
+    </row>
+    <row r="100" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="47"/>
       <c r="C100" s="48"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+      <c r="D100" s="48"/>
+    </row>
+    <row r="101" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="47"/>
       <c r="C101" s="48"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+      <c r="D101" s="48"/>
+    </row>
+    <row r="102" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="47"/>
       <c r="C102" s="48"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+      <c r="D102" s="48"/>
+    </row>
+    <row r="103" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="47"/>
       <c r="C103" s="48"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+      <c r="D103" s="48"/>
+    </row>
+    <row r="104" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="47"/>
       <c r="C104" s="48"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+      <c r="D104" s="48"/>
+    </row>
+    <row r="105" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="47"/>
       <c r="C105" s="48"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+      <c r="D105" s="48"/>
+    </row>
+    <row r="106" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="47"/>
       <c r="C106" s="48"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+      <c r="D106" s="48"/>
+    </row>
+    <row r="107" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="47"/>
       <c r="C107" s="48"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+      <c r="D107" s="48"/>
+    </row>
+    <row r="108" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="47"/>
       <c r="C108" s="48"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+      <c r="D108" s="48"/>
+    </row>
+    <row r="109" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="47"/>
       <c r="C109" s="48"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+      <c r="D109" s="48"/>
+    </row>
+    <row r="110" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="47"/>
       <c r="C110" s="48"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
+      <c r="D110" s="48"/>
+    </row>
+    <row r="111" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="47"/>
       <c r="C111" s="48"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
+      <c r="D111" s="48"/>
+    </row>
+    <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="47"/>
       <c r="C112" s="48"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
+      <c r="D112" s="48"/>
+    </row>
+    <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="47"/>
       <c r="C113" s="48"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
+      <c r="D113" s="48"/>
+    </row>
+    <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="47"/>
       <c r="C114" s="48"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
+      <c r="D114" s="48"/>
+    </row>
+    <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="47"/>
       <c r="C115" s="48"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
+      <c r="D115" s="48"/>
+    </row>
+    <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="47"/>
       <c r="C116" s="48"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
+      <c r="D116" s="48"/>
+    </row>
+    <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="47"/>
       <c r="C117" s="48"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
+      <c r="D117" s="48"/>
+    </row>
+    <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="47"/>
       <c r="C118" s="48"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+      <c r="D118" s="48"/>
+    </row>
+    <row r="119" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="47"/>
       <c r="C119" s="48"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
+      <c r="D119" s="48"/>
+    </row>
+    <row r="120" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="47"/>
       <c r="C120" s="48"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+      <c r="D120" s="48"/>
+    </row>
+    <row r="121" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="47"/>
       <c r="C121" s="48"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
+      <c r="D121" s="48"/>
+    </row>
+    <row r="122" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="47"/>
       <c r="C122" s="48"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+      <c r="D122" s="48"/>
+    </row>
+    <row r="123" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="47"/>
       <c r="C123" s="48"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
+      <c r="D123" s="48"/>
+    </row>
+    <row r="124" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="47"/>
       <c r="C124" s="48"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
+      <c r="D124" s="48"/>
+    </row>
+    <row r="125" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="47"/>
       <c r="C125" s="48"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+      <c r="D125" s="48"/>
+    </row>
+    <row r="126" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="47"/>
       <c r="C126" s="48"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+      <c r="D126" s="48"/>
+    </row>
+    <row r="127" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="47"/>
       <c r="C127" s="48"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
+      <c r="D127" s="48"/>
+    </row>
+    <row r="128" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="47"/>
       <c r="C128" s="48"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+      <c r="D128" s="48"/>
+    </row>
+    <row r="129" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="47"/>
       <c r="C129" s="48"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
+      <c r="D129" s="48"/>
+    </row>
+    <row r="130" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="47"/>
       <c r="C130" s="48"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
+      <c r="D130" s="48"/>
+    </row>
+    <row r="131" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="47"/>
       <c r="C131" s="48"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
+      <c r="D131" s="48"/>
+    </row>
+    <row r="132" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="47"/>
       <c r="C132" s="48"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
+      <c r="D132" s="48"/>
+    </row>
+    <row r="133" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="47"/>
       <c r="C133" s="48"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
+      <c r="D133" s="48"/>
+    </row>
+    <row r="134" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="47"/>
       <c r="C134" s="48"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
+      <c r="D134" s="48"/>
+    </row>
+    <row r="135" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="47"/>
       <c r="C135" s="48"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
+      <c r="D135" s="48"/>
+    </row>
+    <row r="136" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="47"/>
       <c r="C136" s="48"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
+      <c r="D136" s="48"/>
+    </row>
+    <row r="137" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="47"/>
       <c r="C137" s="48"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
+      <c r="D137" s="48"/>
+    </row>
+    <row r="138" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="47"/>
       <c r="C138" s="48"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
+      <c r="D138" s="48"/>
+    </row>
+    <row r="139" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="47"/>
       <c r="C139" s="48"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
+      <c r="D139" s="48"/>
+    </row>
+    <row r="140" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="47"/>
       <c r="C140" s="48"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
+      <c r="D140" s="48"/>
+    </row>
+    <row r="141" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="47"/>
       <c r="C141" s="48"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
+      <c r="D141" s="48"/>
+    </row>
+    <row r="142" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="47"/>
       <c r="C142" s="48"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
+      <c r="D142" s="48"/>
+    </row>
+    <row r="143" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="47"/>
       <c r="C143" s="48"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
+      <c r="D143" s="48"/>
+    </row>
+    <row r="144" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="47"/>
       <c r="C144" s="48"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
+      <c r="D144" s="48"/>
+    </row>
+    <row r="145" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="47"/>
       <c r="C145" s="48"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
+      <c r="D145" s="48"/>
+    </row>
+    <row r="146" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="47"/>
       <c r="C146" s="48"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
+      <c r="D146" s="48"/>
+    </row>
+    <row r="147" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="47"/>
       <c r="C147" s="48"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
+      <c r="D147" s="48"/>
+    </row>
+    <row r="148" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="47"/>
       <c r="C148" s="48"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
+      <c r="D148" s="48"/>
+    </row>
+    <row r="149" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="47"/>
       <c r="C149" s="48"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
+      <c r="D149" s="48"/>
+    </row>
+    <row r="150" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="47"/>
       <c r="C150" s="48"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
+      <c r="D150" s="48"/>
+    </row>
+    <row r="151" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="47"/>
       <c r="C151" s="48"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
+      <c r="D151" s="48"/>
+    </row>
+    <row r="152" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="47"/>
       <c r="C152" s="48"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
+      <c r="D152" s="48"/>
+    </row>
+    <row r="153" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="47"/>
       <c r="C153" s="48"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
+      <c r="D153" s="48"/>
+    </row>
+    <row r="154" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="47"/>
       <c r="C154" s="48"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
+      <c r="D154" s="48"/>
+    </row>
+    <row r="155" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="47"/>
       <c r="C155" s="48"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
+      <c r="D155" s="48"/>
+    </row>
+    <row r="156" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="47"/>
       <c r="C156" s="48"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
+      <c r="D156" s="48"/>
+    </row>
+    <row r="157" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="47"/>
       <c r="C157" s="48"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
+      <c r="D157" s="48"/>
+    </row>
+    <row r="158" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="47"/>
       <c r="C158" s="48"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
+      <c r="D158" s="48"/>
+    </row>
+    <row r="159" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="47"/>
       <c r="C159" s="48"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
+      <c r="D159" s="48"/>
+    </row>
+    <row r="160" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="47"/>
       <c r="C160" s="48"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
+      <c r="D160" s="48"/>
+    </row>
+    <row r="161" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="47"/>
       <c r="C161" s="48"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
+      <c r="D161" s="48"/>
+    </row>
+    <row r="162" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="47"/>
       <c r="C162" s="48"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
+      <c r="D162" s="48"/>
+    </row>
+    <row r="163" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="47"/>
       <c r="C163" s="48"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
+      <c r="D163" s="48"/>
+    </row>
+    <row r="164" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="47"/>
       <c r="C164" s="48"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
+      <c r="D164" s="48"/>
+    </row>
+    <row r="165" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="47"/>
       <c r="C165" s="48"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
+      <c r="D165" s="48"/>
+    </row>
+    <row r="166" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="47"/>
       <c r="C166" s="48"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
+      <c r="D166" s="48"/>
+    </row>
+    <row r="167" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="47"/>
       <c r="C167" s="48"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
+      <c r="D167" s="48"/>
+    </row>
+    <row r="168" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="47"/>
       <c r="C168" s="48"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
+      <c r="D168" s="48"/>
+    </row>
+    <row r="169" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="47"/>
       <c r="C169" s="48"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
+      <c r="D169" s="48"/>
+    </row>
+    <row r="170" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="47"/>
       <c r="C170" s="48"/>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
+      <c r="D170" s="48"/>
+    </row>
+    <row r="171" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="47"/>
       <c r="C171" s="48"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
+      <c r="D171" s="48"/>
+    </row>
+    <row r="172" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="47"/>
       <c r="C172" s="48"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
+      <c r="D172" s="48"/>
+    </row>
+    <row r="173" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="47"/>
       <c r="C173" s="48"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
+      <c r="D173" s="48"/>
+    </row>
+    <row r="174" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="47"/>
       <c r="C174" s="48"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
+      <c r="D174" s="48"/>
+    </row>
+    <row r="175" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="47"/>
       <c r="C175" s="48"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
+      <c r="D175" s="48"/>
+    </row>
+    <row r="176" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="47"/>
       <c r="C176" s="48"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
+      <c r="D176" s="48"/>
+    </row>
+    <row r="177" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="47"/>
       <c r="C177" s="48"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
+      <c r="D177" s="48"/>
+    </row>
+    <row r="178" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="47"/>
       <c r="C178" s="48"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
+      <c r="D178" s="48"/>
+    </row>
+    <row r="179" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="47"/>
       <c r="C179" s="48"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
+      <c r="D179" s="48"/>
+    </row>
+    <row r="180" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="47"/>
       <c r="C180" s="48"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
+      <c r="D180" s="48"/>
+    </row>
+    <row r="181" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="47"/>
       <c r="C181" s="48"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
+      <c r="D181" s="48"/>
+    </row>
+    <row r="182" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="47"/>
       <c r="C182" s="48"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
+      <c r="D182" s="48"/>
+    </row>
+    <row r="183" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="47"/>
       <c r="C183" s="48"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
+      <c r="D183" s="48"/>
+    </row>
+    <row r="184" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="47"/>
       <c r="C184" s="48"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
+      <c r="D184" s="48"/>
+    </row>
+    <row r="185" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="47"/>
       <c r="C185" s="48"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
+      <c r="D185" s="48"/>
+    </row>
+    <row r="186" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="47"/>
       <c r="C186" s="48"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
+      <c r="D186" s="48"/>
+    </row>
+    <row r="187" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="47"/>
       <c r="C187" s="48"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
+      <c r="D187" s="48"/>
+    </row>
+    <row r="188" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="47"/>
       <c r="C188" s="48"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
+      <c r="D188" s="48"/>
+    </row>
+    <row r="189" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="47"/>
       <c r="C189" s="48"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
+      <c r="D189" s="48"/>
+    </row>
+    <row r="190" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="47"/>
       <c r="C190" s="48"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
+      <c r="D190" s="48"/>
+    </row>
+    <row r="191" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="47"/>
       <c r="C191" s="48"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
+      <c r="D191" s="48"/>
+    </row>
+    <row r="192" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="47"/>
       <c r="C192" s="48"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
+      <c r="D192" s="48"/>
+    </row>
+    <row r="193" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="47"/>
       <c r="C193" s="48"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
+      <c r="D193" s="48"/>
+    </row>
+    <row r="194" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="47"/>
       <c r="C194" s="48"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
+      <c r="D194" s="48"/>
+    </row>
+    <row r="195" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="47"/>
       <c r="C195" s="48"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
+      <c r="D195" s="48"/>
+    </row>
+    <row r="196" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="47"/>
       <c r="C196" s="48"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
+      <c r="D196" s="48"/>
+    </row>
+    <row r="197" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="47"/>
       <c r="C197" s="48"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
+      <c r="D197" s="48"/>
+    </row>
+    <row r="198" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="47"/>
       <c r="C198" s="48"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
+      <c r="D198" s="48"/>
+    </row>
+    <row r="199" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="47"/>
       <c r="C199" s="48"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
+      <c r="D199" s="48"/>
+    </row>
+    <row r="200" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="47"/>
       <c r="C200" s="48"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
+      <c r="D200" s="48"/>
+    </row>
+    <row r="201" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="47"/>
       <c r="C201" s="48"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
+      <c r="D201" s="48"/>
+    </row>
+    <row r="202" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="47"/>
       <c r="C202" s="48"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
+      <c r="D202" s="48"/>
+    </row>
+    <row r="203" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="47"/>
       <c r="C203" s="48"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
+      <c r="D203" s="48"/>
+    </row>
+    <row r="204" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="47"/>
       <c r="C204" s="48"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
+      <c r="D204" s="48"/>
+    </row>
+    <row r="205" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="47"/>
       <c r="C205" s="48"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
+      <c r="D205" s="48"/>
+    </row>
+    <row r="206" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="47"/>
       <c r="C206" s="48"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
+      <c r="D206" s="48"/>
+    </row>
+    <row r="207" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="47"/>
       <c r="C207" s="48"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
+      <c r="D207" s="48"/>
+    </row>
+    <row r="208" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="47"/>
       <c r="C208" s="48"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
+      <c r="D208" s="48"/>
+    </row>
+    <row r="209" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="47"/>
       <c r="C209" s="48"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
+      <c r="D209" s="48"/>
+    </row>
+    <row r="210" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="47"/>
       <c r="C210" s="48"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
+      <c r="D210" s="48"/>
+    </row>
+    <row r="211" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="47"/>
       <c r="C211" s="48"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
+      <c r="D211" s="48"/>
+    </row>
+    <row r="212" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="47"/>
       <c r="C212" s="48"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
+      <c r="D212" s="48"/>
+    </row>
+    <row r="213" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="47"/>
       <c r="C213" s="48"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
+      <c r="D213" s="48"/>
+    </row>
+    <row r="214" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="47"/>
       <c r="C214" s="48"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
+      <c r="D214" s="48"/>
+    </row>
+    <row r="215" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="47"/>
       <c r="C215" s="48"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
+      <c r="D215" s="48"/>
+    </row>
+    <row r="216" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="47"/>
       <c r="C216" s="48"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
+      <c r="D216" s="48"/>
+    </row>
+    <row r="217" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="47"/>
       <c r="C217" s="48"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
+      <c r="D217" s="48"/>
+    </row>
+    <row r="218" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="47"/>
       <c r="C218" s="48"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
+      <c r="D218" s="48"/>
+    </row>
+    <row r="219" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="47"/>
       <c r="C219" s="48"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
+      <c r="D219" s="48"/>
+    </row>
+    <row r="220" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="47"/>
       <c r="C220" s="48"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
+      <c r="D220" s="48"/>
+    </row>
+    <row r="221" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="47"/>
       <c r="C221" s="48"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
+      <c r="D221" s="48"/>
+    </row>
+    <row r="222" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="47"/>
       <c r="C222" s="48"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
+      <c r="D222" s="48"/>
+    </row>
+    <row r="223" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="47"/>
       <c r="C223" s="48"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
+      <c r="D223" s="48"/>
+    </row>
+    <row r="224" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="47"/>
       <c r="C224" s="48"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
+      <c r="D224" s="48"/>
+    </row>
+    <row r="225" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="47"/>
       <c r="C225" s="48"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
+      <c r="D225" s="48"/>
+    </row>
+    <row r="226" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="47"/>
       <c r="C226" s="48"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
+      <c r="D226" s="48"/>
+    </row>
+    <row r="227" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="47"/>
       <c r="C227" s="48"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
+      <c r="D227" s="48"/>
+    </row>
+    <row r="228" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="47"/>
       <c r="C228" s="48"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
+      <c r="D228" s="48"/>
+    </row>
+    <row r="229" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="47"/>
       <c r="C229" s="48"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
+      <c r="D229" s="48"/>
+    </row>
+    <row r="230" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="47"/>
       <c r="C230" s="48"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
+      <c r="D230" s="48"/>
+    </row>
+    <row r="231" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="47"/>
       <c r="C231" s="48"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
+      <c r="D231" s="48"/>
+    </row>
+    <row r="232" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="47"/>
       <c r="C232" s="48"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
+      <c r="D232" s="48"/>
+    </row>
+    <row r="233" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="47"/>
       <c r="C233" s="48"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
+      <c r="D233" s="48"/>
+    </row>
+    <row r="234" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="47"/>
       <c r="C234" s="48"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
+      <c r="D234" s="48"/>
+    </row>
+    <row r="235" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="47"/>
       <c r="C235" s="48"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
+      <c r="D235" s="48"/>
+    </row>
+    <row r="236" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="47"/>
       <c r="C236" s="48"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
+      <c r="D236" s="48"/>
+    </row>
+    <row r="237" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="47"/>
       <c r="C237" s="48"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
+      <c r="D237" s="48"/>
+    </row>
+    <row r="238" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="47"/>
       <c r="C238" s="48"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
+      <c r="D238" s="48"/>
+    </row>
+    <row r="239" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="47"/>
       <c r="C239" s="48"/>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
+      <c r="D239" s="48"/>
+    </row>
+    <row r="240" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="47"/>
       <c r="C240" s="48"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
+      <c r="D240" s="48"/>
+    </row>
+    <row r="241" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="47"/>
       <c r="C241" s="48"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
+      <c r="D241" s="48"/>
+    </row>
+    <row r="242" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="47"/>
       <c r="C242" s="48"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
+      <c r="D242" s="48"/>
+    </row>
+    <row r="243" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="47"/>
       <c r="C243" s="48"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
+      <c r="D243" s="48"/>
+    </row>
+    <row r="244" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="47"/>
       <c r="C244" s="48"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
+      <c r="D244" s="48"/>
+    </row>
+    <row r="245" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="47"/>
       <c r="C245" s="48"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
+      <c r="D245" s="48"/>
+    </row>
+    <row r="246" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="47"/>
       <c r="C246" s="48"/>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
+      <c r="D246" s="48"/>
+    </row>
+    <row r="247" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="47"/>
       <c r="C247" s="48"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
+      <c r="D247" s="48"/>
+    </row>
+    <row r="248" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="47"/>
       <c r="C248" s="48"/>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
+      <c r="D248" s="48"/>
+    </row>
+    <row r="249" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="47"/>
       <c r="C249" s="48"/>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
+      <c r="D249" s="48"/>
+    </row>
+    <row r="250" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="47"/>
       <c r="C250" s="48"/>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
+      <c r="D250" s="48"/>
+    </row>
+    <row r="251" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="47"/>
       <c r="C251" s="48"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
+      <c r="D251" s="48"/>
+    </row>
+    <row r="252" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="47"/>
       <c r="C252" s="48"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
+      <c r="D252" s="48"/>
+    </row>
+    <row r="253" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="47"/>
       <c r="C253" s="48"/>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
+      <c r="D253" s="48"/>
+    </row>
+    <row r="254" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="47"/>
       <c r="C254" s="48"/>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
+      <c r="D254" s="48"/>
+    </row>
+    <row r="255" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="47"/>
       <c r="C255" s="48"/>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
+      <c r="D255" s="48"/>
+    </row>
+    <row r="256" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="47"/>
       <c r="C256" s="48"/>
-    </row>
-    <row r="257" ht="15.75" customHeight="1">
+      <c r="D256" s="48"/>
+    </row>
+    <row r="257" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="47"/>
       <c r="C257" s="48"/>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
+      <c r="D257" s="48"/>
+    </row>
+    <row r="258" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="47"/>
       <c r="C258" s="48"/>
+      <c r="D258" s="48"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="28.57"/>
-    <col customWidth="1" min="3" max="3" width="24.57"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6017,7 +6941,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -6025,8 +6949,8 @@
         <v>15</v>
       </c>
       <c r="C2" s="11">
-        <f>NOW()</f>
-        <v>43911.85485</v>
+        <f ca="1">NOW()</f>
+        <v>43918.512571643521</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
@@ -6057,28 +6981,29 @@
       <c r="Z2" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.29"/>
-    <col customWidth="1" min="2" max="23" width="45.86"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="23" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6121,7 +7046,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
@@ -6152,7 +7077,7 @@
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
@@ -6183,7 +7108,7 @@
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -6208,7 +7133,7 @@
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>146</v>
       </c>
@@ -6239,7 +7164,7 @@
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>146</v>
       </c>
@@ -6270,7 +7195,7 @@
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>146</v>
       </c>
@@ -6301,7 +7226,7 @@
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>146</v>
       </c>
@@ -6332,7 +7257,7 @@
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>146</v>
       </c>
@@ -6363,7 +7288,7 @@
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -6388,7 +7313,7 @@
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>182</v>
       </c>
@@ -6419,7 +7344,7 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>182</v>
       </c>
@@ -6450,7 +7375,7 @@
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>182</v>
       </c>
@@ -6481,7 +7406,7 @@
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>182</v>
       </c>
@@ -6512,7 +7437,7 @@
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>182</v>
       </c>
@@ -6543,7 +7468,7 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>182</v>
       </c>
@@ -6574,7 +7499,7 @@
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -6599,7 +7524,7 @@
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
         <v>203</v>
       </c>
@@ -6630,7 +7555,7 @@
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
         <v>203</v>
       </c>
@@ -6661,7 +7586,7 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>203</v>
       </c>
@@ -6692,7 +7617,7 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
         <v>203</v>
       </c>
@@ -6723,7 +7648,7 @@
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
         <v>203</v>
       </c>
@@ -6754,7 +7679,7 @@
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
         <v>203</v>
       </c>
@@ -6785,7 +7710,7 @@
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6810,7 +7735,7 @@
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
         <v>220</v>
       </c>
@@ -6841,7 +7766,7 @@
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="s">
         <v>220</v>
       </c>
@@ -6872,7 +7797,7 @@
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
         <v>220</v>
       </c>
@@ -6903,7 +7828,7 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
         <v>220</v>
       </c>
@@ -6934,7 +7859,7 @@
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
         <v>220</v>
       </c>
@@ -6965,7 +7890,7 @@
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -6990,7 +7915,7 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>259</v>
       </c>
@@ -7021,7 +7946,7 @@
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>259</v>
       </c>
@@ -7052,7 +7977,7 @@
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -7077,115 +8002,115 @@
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>280</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
+        <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>280</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>280</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>280</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>280</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>280</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>280</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>280</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>280</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>280</v>
       </c>
@@ -7196,43 +8121,43 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="str">
-        <f t="shared" ref="B44:B47" si="2">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
+        <f t="shared" ref="B44:B47" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>304</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>304</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="46" t="s">
         <v>307</v>
       </c>
@@ -7263,7 +8188,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="46" t="s">
         <v>307</v>
       </c>
@@ -7294,8 +8219,8 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>312</v>
       </c>
@@ -7306,7 +8231,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -7317,7 +8242,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -7328,7 +8253,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>312</v>
       </c>
@@ -7339,7 +8264,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -7350,7 +8275,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>312</v>
       </c>
@@ -7361,8 +8286,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="46" t="s">
         <v>324</v>
       </c>
@@ -7373,7 +8298,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="46" t="s">
         <v>324</v>
       </c>
@@ -7384,7 +8309,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="46" t="s">
         <v>324</v>
       </c>
@@ -7395,7 +8320,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="46" t="s">
         <v>324</v>
       </c>
@@ -7406,8 +8331,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>333</v>
       </c>
@@ -7418,7 +8343,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>333</v>
       </c>
@@ -7429,7 +8354,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>333</v>
       </c>
@@ -7440,7 +8365,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>333</v>
       </c>
@@ -7451,7 +8376,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>333</v>
       </c>
@@ -7462,8 +8387,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>344</v>
       </c>
@@ -7474,7 +8399,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>344</v>
       </c>
@@ -7485,8 +8410,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>349</v>
       </c>
@@ -7497,7 +8422,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>349</v>
       </c>
@@ -7508,7 +8433,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>349</v>
       </c>
@@ -7519,933 +8444,933 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>